--- a/Tecnicas de control/Proyecto/IdentFvsV.xlsx
+++ b/Tecnicas de control/Proyecto/IdentFvsV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\Semestre-10\Tecnicas de control\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C50DA08-885A-4C0E-8F9C-3978E2562528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490EE345-7A92-4ABD-B79E-33979A3DDC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68AD6B39-C190-4FA2-BF87-25474CEEEEA2}"/>
   </bookViews>
@@ -103,8 +103,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -159,24 +159,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4973,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96FA629-7C01-4F0A-B2BD-324C250E098B}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5444,11 +5438,11 @@
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
@@ -5571,11 +5565,11 @@
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
@@ -5600,139 +5594,139 @@
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="6">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
-        <f>C21</f>
+        <f t="shared" ref="C37:E45" si="7">C21</f>
         <v>6</v>
       </c>
       <c r="D37" s="2">
-        <f>D21</f>
+        <f t="shared" si="7"/>
         <v>0.66</v>
       </c>
-      <c r="E37" s="8">
-        <f>E21</f>
+      <c r="E37" s="6">
+        <f t="shared" si="7"/>
         <v>1.5791887218045114E-2</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
-        <f>C22</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="D38" s="2">
-        <f>D22</f>
+        <f t="shared" si="7"/>
         <v>0.87</v>
       </c>
-      <c r="E38" s="8">
-        <f>E22</f>
+      <c r="E38" s="6">
+        <f t="shared" si="7"/>
         <v>1.911106015037594E-2</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
-        <f>C23</f>
+        <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
       <c r="D39" s="2">
-        <f>D23</f>
+        <f t="shared" si="7"/>
         <v>1.36</v>
       </c>
-      <c r="E39" s="8">
-        <f>E23</f>
+      <c r="E39" s="6">
+        <f t="shared" si="7"/>
         <v>3.238775187969925E-2</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
-        <f>C24</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="D40" s="2">
-        <f>D24</f>
+        <f t="shared" si="7"/>
         <v>1.55</v>
       </c>
-      <c r="E40" s="8">
-        <f>E24</f>
+      <c r="E40" s="6">
+        <f t="shared" si="7"/>
         <v>3.9026097744360902E-2</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
-        <f>C25</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="D41" s="2">
-        <f>D25</f>
+        <f t="shared" si="7"/>
         <v>1.87</v>
       </c>
-      <c r="E41" s="8">
-        <f>E25</f>
+      <c r="E41" s="6">
+        <f t="shared" si="7"/>
         <v>5.2302789473684205E-2</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
-        <f>C26</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="D42" s="2">
-        <f>D26</f>
+        <f t="shared" si="7"/>
         <v>2.4900000000000002</v>
       </c>
-      <c r="E42" s="8">
-        <f>E26</f>
+      <c r="E42" s="6">
+        <f t="shared" si="7"/>
         <v>8.2175345864661659E-2</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
-        <f>C27</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D43" s="2">
-        <f>D27</f>
+        <f t="shared" si="7"/>
         <v>3.29</v>
       </c>
-      <c r="E43" s="8">
-        <f>E27</f>
+      <c r="E43" s="6">
+        <f t="shared" si="7"/>
         <v>0.13122534586466167</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
-        <f>C28</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="D44" s="2">
-        <f>D28</f>
+        <f t="shared" si="7"/>
         <v>3.95</v>
       </c>
-      <c r="E44" s="8">
-        <f>E28</f>
+      <c r="E44" s="6">
+        <f t="shared" si="7"/>
         <v>0.18027534586466168</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
-        <f>C29</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D45" s="2">
-        <f>D29</f>
+        <f t="shared" si="7"/>
         <v>4.3899999999999997</v>
       </c>
-      <c r="E45" s="8">
-        <f>E29</f>
+      <c r="E45" s="6">
+        <f t="shared" si="7"/>
         <v>0.22231820300751878</v>
       </c>
     </row>
@@ -5743,7 +5737,7 @@
       <c r="D46" s="2">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f>0.01*D46^2+0.0045*D46+0.0082</f>
         <v>0.25321400000000005</v>
       </c>
@@ -5755,7 +5749,7 @@
       <c r="D47" s="2">
         <v>5</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f>E46</f>
         <v>0.25321400000000005</v>
       </c>
@@ -5767,7 +5761,7 @@
       <c r="D48" s="2">
         <v>6</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <f>E47</f>
         <v>0.25321400000000005</v>
       </c>
